--- a/datacovidgt/DATOS RRSS GT.xlsx
+++ b/datacovidgt/DATOS RRSS GT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID GT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="758" documentId="8_{9F1230D5-64C1-4EE0-9758-3A2331A06A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DDF94715-FC45-4111-86BE-1B29A8B40045}"/>
+  <xr:revisionPtr revIDLastSave="771" documentId="8_{9F1230D5-64C1-4EE0-9758-3A2331A06A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{688801C5-246C-413F-B4BA-9902C64FC30F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Nuevos " sheetId="6" r:id="rId1"/>
@@ -6970,8 +6970,8 @@
   </sheetPr>
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -7065,57 +7065,57 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="49">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13">
-        <v>638</v>
+        <v>679</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="49">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="49">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="49">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="49">
-        <v>43958</v>
+        <v>43962</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -57232,8 +57232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>

--- a/datacovidgt/DATOS RRSS GT.xlsx
+++ b/datacovidgt/DATOS RRSS GT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22907"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID GT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="771" documentId="8_{9F1230D5-64C1-4EE0-9758-3A2331A06A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{688801C5-246C-413F-B4BA-9902C64FC30F}"/>
+  <xr:revisionPtr revIDLastSave="1000" documentId="8_{9F1230D5-64C1-4EE0-9758-3A2331A06A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FFC54259-E57A-457D-8230-461701B5DCA2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Nuevos " sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5219" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5355" uniqueCount="910">
   <si>
     <t>DIA</t>
   </si>
@@ -3504,18 +3504,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3529,6 +3517,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3536,7 +3536,7 @@
     <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="55">
     <dxf>
       <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
@@ -3803,6 +3803,57 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="d\-mmm"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="21" formatCode="d\-mmm"/>
@@ -4140,38 +4191,158 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C7124E47-3D2D-419B-8945-4E2B1598725E}" name="NACIONAL" displayName="NACIONAL" ref="A1:K61" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" headerRowBorderDxfId="34" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C7124E47-3D2D-419B-8945-4E2B1598725E}" name="NACIONAL" displayName="NACIONAL" ref="A1:K61" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53" headerRowBorderDxfId="51" tableBorderDxfId="52">
   <autoFilter ref="A1:K61" xr:uid="{33A3F7D7-6411-4CF7-BF16-EE442911A307}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{D8D5599C-26F8-4B96-A944-93A638641D17}" name="DIA" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{352161EA-93C1-4162-BA39-C8F655D430A1}" name="FECHA" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{2839CFBF-A305-42F2-88A4-C827A1D25679}" name="Casos Diarios" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{D8D5599C-26F8-4B96-A944-93A638641D17}" name="DIA" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{352161EA-93C1-4162-BA39-C8F655D430A1}" name="FECHA" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{2839CFBF-A305-42F2-88A4-C827A1D25679}" name="Casos Diarios" dataDxfId="48">
       <calculatedColumnFormula>+D2-D1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{746365E8-EF89-4CE5-9A68-ED14EB89C707}" name="CONFIRMADOS" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{1F35E502-3209-41A9-A716-55909FD4CE33}" name="ACTIVOS" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{E5532EE7-0A18-469F-BDF7-CAF333074AF6}" name="RECUPERADOS" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{62350318-0139-4403-A488-2B648C65EDDC}" name="FALLECIDOS" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{2FF37737-68C5-432E-8F2A-BCC30E017674}" name="Recuperados Dia" dataDxfId="26">
+    <tableColumn id="4" xr3:uid="{746365E8-EF89-4CE5-9A68-ED14EB89C707}" name="CONFIRMADOS" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{1F35E502-3209-41A9-A716-55909FD4CE33}" name="ACTIVOS" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{E5532EE7-0A18-469F-BDF7-CAF333074AF6}" name="RECUPERADOS" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{62350318-0139-4403-A488-2B648C65EDDC}" name="FALLECIDOS" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{2FF37737-68C5-432E-8F2A-BCC30E017674}" name="Recuperados Dia" dataDxfId="43">
       <calculatedColumnFormula>+F2-F1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E0C7BDB2-997F-47C0-879C-AA731B03EFD8}" name="Muertes Dia" dataDxfId="25">
+    <tableColumn id="9" xr3:uid="{E0C7BDB2-997F-47C0-879C-AA731B03EFD8}" name="Muertes Dia" dataDxfId="42">
       <calculatedColumnFormula>+G2-G1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{2A7F7A4E-FC96-42F6-A103-85E6F20545FF}" name="Casos Activos" dataDxfId="24">
+    <tableColumn id="11" xr3:uid="{2A7F7A4E-FC96-42F6-A103-85E6F20545FF}" name="Casos Activos" dataDxfId="41">
       <calculatedColumnFormula>+NACIONAL[[#This Row],[CONFIRMADOS]]-NACIONAL[[#This Row],[FALLECIDOS]]-NACIONAL[[#This Row],[RECUPERADOS]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3EE2EC84-A7FD-4AA3-9DDB-E9C4BEBF9399}" name="FALLECIDOS AJENOS A COVID19" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{3EE2EC84-A7FD-4AA3-9DDB-E9C4BEBF9399}" name="FALLECIDOS AJENOS A COVID19" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D63A59D9-99C4-4678-B12B-D109AED59771}" name="Casos_Region3456111213" displayName="Casos_Region3456111213" ref="A44:C49" totalsRowShown="0">
+  <autoFilter ref="A44:C49" xr:uid="{2821B4F7-7666-491D-BB65-60EA7DF397FF}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E5BC92B7-CDA0-4360-AABB-85F5E7236B58}" name="Fecha?" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9F4AF9A7-4DF1-46DE-81AD-512F12EB5B1E}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{9E06D87A-F7AB-4AF1-8737-F3418A3A4CA9}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{EF8BE795-CF3D-4CE2-93C8-9F34D23EF597}" name="Casos_Region345611121314" displayName="Casos_Region345611121314" ref="A51:C56" totalsRowShown="0">
+  <autoFilter ref="A51:C56" xr:uid="{10090E4A-87E5-42FE-A612-5937947AEC44}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3C3B559E-8239-42EB-B604-6D47448C89F7}" name="Fecha?" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{2E216AC0-2816-468D-AD18-FC26410958F2}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{D3F7CE52-048C-498F-B65F-16EE45F46EBC}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{55B1D945-2F63-4FF9-827F-1E77EDE96F2F}" name="Casos_Region34561112131415" displayName="Casos_Region34561112131415" ref="A58:C63" totalsRowShown="0">
+  <autoFilter ref="A58:C63" xr:uid="{5A0082E9-49BC-4396-9097-A6EE305DAFB1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7D0BA00C-DD29-46D6-B386-839779C94CA1}" name="Fecha?" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{5AF97B5D-5DF7-4648-B44F-6887B5DD7529}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{8EA75C18-897B-4865-8233-7A9F67403C15}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{DCFC99A3-0B75-49DC-9A64-3DC2F452239E}" name="Casos_Region3456111213141516" displayName="Casos_Region3456111213141516" ref="A65:C70" totalsRowShown="0">
+  <autoFilter ref="A65:C70" xr:uid="{D3785D59-1878-4BBF-9C42-3C55B163CB7A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9D5DF5BA-28AA-4E89-AAD0-AB5F09889825}" name="Fecha?" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{41890EF8-844A-4A6F-9D17-1554F6E0C524}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{B9310D47-D4A8-40C7-B107-C97B3600CFA1}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{CA77C4DA-2BD5-47AC-9EB5-366A697C859E}" name="Casos_Region345611121314151617" displayName="Casos_Region345611121314151617" ref="A72:C77" totalsRowShown="0">
+  <autoFilter ref="A72:C77" xr:uid="{D50C6FAC-5541-4C52-9628-56A2767DFEF6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{99122905-BD28-4238-8386-A2C3003A8AFD}" name="Fecha?" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{0150ADA5-A0F6-4163-AE27-BEF4EE57482A}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{8F070BFF-161C-44B1-B305-FF22900586A6}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{591C589D-A3F0-4B15-B7ED-13A2E5641B41}" name="Casos_Region34561112131415161718" displayName="Casos_Region34561112131415161718" ref="A79:C84" totalsRowShown="0">
+  <autoFilter ref="A79:C84" xr:uid="{0338D195-82A1-4119-A6B1-8C5547185915}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C6413E56-66B7-4717-8AEC-829918482967}" name="Fecha?" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{AC432778-CE13-4119-8F19-68938971B9CB}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{B27D73FC-C8FF-4F71-92A5-C43B9A6F6B27}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{23351F7B-5160-4487-879B-02B7F1F68AD3}" name="Casos_Region3456111213141516171819" displayName="Casos_Region3456111213141516171819" ref="A86:C91" totalsRowShown="0">
+  <autoFilter ref="A86:C91" xr:uid="{1825962C-1104-4A2C-953C-90AC56F30BBC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{ED88267F-1CDF-4A7D-B391-1CB7667356A2}" name="Fecha?" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{ECF2074F-AF12-43CA-AC3D-EC67D28E35FA}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{3F5B82D2-1E35-497D-8B6F-D070D190522E}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{3742891B-984C-41FC-82A1-655F98266DCD}" name="Casos_Region345611121314151617181920" displayName="Casos_Region345611121314151617181920" ref="A93:C98" totalsRowShown="0">
+  <autoFilter ref="A93:C98" xr:uid="{F630AF07-3F44-4D24-A1F0-CE36696EA01F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E72CFE8B-A540-4DB8-AE9D-038F35374AF0}" name="Fecha?" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{5CB01D4D-35B9-4AB8-9E24-D4CC9166970D}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{C01B4E19-A03E-421E-90F1-D103DB48DB1D}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{5CABD000-1B38-4898-976A-55119E1FC4A0}" name="Casos_Region21" displayName="Casos_Region21" ref="A107:C112" totalsRowShown="0">
+  <autoFilter ref="A107:C112" xr:uid="{A281A194-639C-4C52-AF3B-7BDF4832D686}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{66797F5B-9BA2-460D-862F-418E22C94242}" name="Fecha?" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{03ED28EF-F694-4D10-B0C3-0FC76EE5038A}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{8F25ABB3-9D5E-408F-9E00-78D61A8E3FA6}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{17E2B4B8-91A2-4645-8EAD-7238A95B7BF8}" name="Casos_Region2122" displayName="Casos_Region2122" ref="A114:C119" totalsRowShown="0">
+  <autoFilter ref="A114:C119" xr:uid="{EAC4B90F-6EFF-4396-B6BA-EFED235ADF4A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{17CCFC76-BC17-430F-8A24-D8F0FA34FB13}" name="Fecha?" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{A573CD32-AFBC-4620-BB0A-A226E2D87308}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{F0812C8E-5204-45F3-B338-633C228CA6F2}" name="Casos Confirmados"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D194683B-F380-4419-8481-EA84E67B22A1}" name="Casos_Region" displayName="Casos_Region" ref="A3:C8" totalsRowShown="0">
-  <autoFilter ref="A3:C8" xr:uid="{34E41DA0-9A9B-4F51-80FA-22E83F1973DA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D194683B-F380-4419-8481-EA84E67B22A1}" name="Casos_Region" displayName="Casos_Region" ref="A100:C105" totalsRowShown="0">
+  <autoFilter ref="A100:C105" xr:uid="{34E41DA0-9A9B-4F51-80FA-22E83F1973DA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{734347CE-477D-41AD-B610-485A7ED9F808}" name="Fecha?" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{734347CE-477D-41AD-B610-485A7ED9F808}" name="Fecha?" dataDxfId="39"/>
     <tableColumn id="2" xr3:uid="{AEEA1AFD-C1EA-434A-B9D0-9FFA8A0FB2B1}" name="Región"/>
     <tableColumn id="3" xr3:uid="{6A14AD86-09F0-40EF-A380-7FD3103EB61A}" name="Casos Confirmados"/>
   </tableColumns>
@@ -4179,19 +4350,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{101D3457-3C6E-48E6-B12B-8EDD572B1235}" name="Casos_Region2" displayName="Casos_Region2" ref="A12:C17" totalsRowShown="0">
-  <autoFilter ref="A12:C17" xr:uid="{8BCBF50F-BA4A-4DDA-A2AD-ECAC246591F8}"/>
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{B1A18652-A014-45B2-BA25-010CECB00FA0}" name="Casos_Region212223" displayName="Casos_Region212223" ref="A121:C126" totalsRowShown="0">
+  <autoFilter ref="A121:C126" xr:uid="{EAFF4425-E5A4-4DE5-899E-C29E27F5B240}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{948C823E-37CA-4DA7-8E85-2B07E220ADCC}" name="Fecha?" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{8775938F-957C-40AC-95F7-1B16C015A774}" name="Región"/>
-    <tableColumn id="3" xr3:uid="{9B0E7360-6C5A-4080-A874-F9525D68FA54}" name="Casos Confirmados"/>
+    <tableColumn id="1" xr3:uid="{68D0D495-5B3D-424B-8541-2FDA631AF853}" name="Fecha?" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{2689081A-CF6C-45BD-9AB5-CEC964810105}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{B8765138-3C73-4DB1-A193-612328A2E76E}" name="Casos Confirmados"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{098B8ABD-39CC-481F-B5DD-8A1D47B5485B}" name="Detalle_Casos" displayName="Detalle_Casos" ref="A1:H1115" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
   <autoFilter ref="A1:H1115" xr:uid="{D721CE67-7EB3-4B8C-BCC9-32CE3BEDA9AC}"/>
   <tableColumns count="8">
@@ -4212,7 +4383,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{EB010619-E8A6-4116-9C9C-D73284B3D1E1}" name="LOCALIZACION" displayName="LOCALIZACION" ref="A1:T342" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:T342" xr:uid="{F755337D-02A3-4DAB-87BB-D016B95CC58B}"/>
   <tableColumns count="20">
@@ -4238,6 +4409,90 @@
     <tableColumn id="12" xr3:uid="{4599194D-BA8F-43C4-B068-8D03117965DB}" name="Población total" dataDxfId="2" dataCellStyle="Millares"/>
     <tableColumn id="20" xr3:uid="{4FFC72DD-11E2-400C-9FEE-91912B922BB8}" name="Sexo - Hombres" dataDxfId="1" dataCellStyle="Millares"/>
     <tableColumn id="21" xr3:uid="{E3D930E8-0241-4EF6-8308-70832F57DC80}" name="Sexo - Mujeres" dataDxfId="0" dataCellStyle="Millares"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{101D3457-3C6E-48E6-B12B-8EDD572B1235}" name="Casos_Region2" displayName="Casos_Region2" ref="A128:C133" totalsRowShown="0">
+  <autoFilter ref="A128:C133" xr:uid="{8BCBF50F-BA4A-4DDA-A2AD-ECAC246591F8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{948C823E-37CA-4DA7-8E85-2B07E220ADCC}" name="Fecha?" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{8775938F-957C-40AC-95F7-1B16C015A774}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{9B0E7360-6C5A-4080-A874-F9525D68FA54}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C2742386-4B94-4797-AF7D-79F889580DBB}" name="Casos_Region3" displayName="Casos_Region3" ref="A2:C7" totalsRowShown="0">
+  <autoFilter ref="A2:C7" xr:uid="{3748EFC6-3E6C-4AD5-BC4D-61D668B7DCC2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{95DE0B55-2992-4D1F-9E73-CD885A43DBA7}" name="Fecha?" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{5B276D1F-061C-4DB2-A173-70FB0CD1A719}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{B2B5C373-0D4A-4F09-98BA-3984D7537027}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B11B2113-BE52-43D4-91AC-2E344DEE2008}" name="Casos_Region34" displayName="Casos_Region34" ref="A9:C14" totalsRowShown="0">
+  <autoFilter ref="A9:C14" xr:uid="{3579FAFE-19E6-45BE-91C2-D67F3660A3A4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{092B3FEF-7820-4008-B5B8-56E28C005877}" name="Fecha?" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{8997E4A4-1130-40B0-B909-5921A8D3B409}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{83DA3FC0-965A-41F1-8F02-CE1BEE49BC3C}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6E385BE6-B3F7-49A9-8DB1-2BB33673335B}" name="Casos_Region345" displayName="Casos_Region345" ref="A16:C21" totalsRowShown="0">
+  <autoFilter ref="A16:C21" xr:uid="{301A1D02-60F4-4436-B755-1EA4E35BF270}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F65EAAE7-10B3-4E46-B28A-8869F4D91A9B}" name="Fecha?" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{0A5F5FE6-9155-4D5C-841A-C2FC487797E5}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{294D1AA7-92E8-471B-A857-E9FE3896A7B8}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2F4BAAE9-401D-4BD5-B9B8-C010231167C5}" name="Casos_Region3456" displayName="Casos_Region3456" ref="A23:C28" totalsRowShown="0">
+  <autoFilter ref="A23:C28" xr:uid="{3E8B03E3-E399-4120-A5BE-924F83D217FC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{AACA3BB1-363B-4FF3-9169-14076365DFC1}" name="Fecha?" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{0690CBC9-B25C-4611-8194-41A415625CF9}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{2B3CB05D-DD88-4FCE-8C60-38389267B432}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{92926CD9-120D-4A4D-98AA-C2DE8ED2EDC2}" name="Casos_Region345611" displayName="Casos_Region345611" ref="A30:C35" totalsRowShown="0">
+  <autoFilter ref="A30:C35" xr:uid="{89779339-2441-456F-858B-2C999F7B54AB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D867A888-1301-4740-8695-D3685454F429}" name="Fecha?" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{1F225517-36A3-4804-B79A-76CE0324A681}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{77F4EB90-A0BB-46F4-916F-BE11DB74D5AF}" name="Casos Confirmados"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5B55B305-D1E1-4A61-9EA1-EA7B64227CCB}" name="Casos_Region34561112" displayName="Casos_Region34561112" ref="A37:C42" totalsRowShown="0">
+  <autoFilter ref="A37:C42" xr:uid="{FA91FE55-6400-444F-89A5-B0B9524EE310}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{39066C51-0F75-45D2-8CD3-C744A56AE8BA}" name="Fecha?" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{45A07C80-BC64-4F72-9B83-410FD6039488}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{EAEFDAE5-CCDD-4B65-9B28-8899CFEF1CF9}" name="Casos Confirmados"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6890,7 +7145,7 @@
       <c r="A61" s="61">
         <v>60</v>
       </c>
-      <c r="B61" s="95">
+      <c r="B61" s="91">
         <v>43962</v>
       </c>
       <c r="C61" s="62">
@@ -6968,10 +7223,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A2:C133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -6980,150 +7235,1334 @@
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="C1">
-        <f>SUM(C4:C8)</f>
-        <v>1052</v>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>11</v>
+      <c r="A3" s="49">
+        <v>43944</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="49">
-        <v>43958</v>
+        <v>43944</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>638</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="49">
-        <v>43958</v>
+        <v>43944</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>137</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="49">
-        <v>43958</v>
+        <v>43944</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>126</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="49">
-        <v>43958</v>
+        <v>43944</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>76</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="49">
-        <v>43958</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>75</v>
+      <c r="A8" s="49"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="49">
+        <v>43945</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="49">
+        <v>43945</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="49">
+        <v>43945</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="49">
-        <v>43962</v>
+        <v>43945</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>679</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="49">
-        <v>43962</v>
+        <v>43945</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>142</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="49">
-        <v>43962</v>
-      </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15">
-        <v>128</v>
-      </c>
+      <c r="A15" s="49"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="49">
-        <v>43962</v>
+      <c r="A16" t="s">
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>87</v>
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="49">
+        <v>43946</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="49">
+        <v>43946</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="49">
+        <v>43946</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="49">
+        <v>43946</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="49">
+        <v>43946</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="49"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="49">
+        <v>43947</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="49">
+        <v>43947</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="49">
+        <v>43947</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1">
+      <c r="A27" s="49">
+        <v>43947</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="49">
+        <v>43947</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="49"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="49">
+        <v>43948</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="49">
+        <v>43948</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="49">
+        <v>43948</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="49">
+        <v>43948</v>
+      </c>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="49">
+        <v>43948</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="49"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="49">
+        <v>43949</v>
+      </c>
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="49">
+        <v>43949</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="49">
+        <v>43949</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="49">
+        <v>43949</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="49">
+        <v>43949</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="49"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="49">
+        <v>43950</v>
+      </c>
+      <c r="B45" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="49">
+        <v>43950</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="49">
+        <v>43950</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="49">
+        <v>43950</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="49">
+        <v>43950</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="49"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="49">
+        <v>43951</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="49">
+        <v>43951</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="49">
+        <v>43951</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="49">
+        <v>43951</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="49">
+        <v>43951</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="49"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="49">
+        <v>43952</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="49">
+        <v>43952</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="49">
+        <v>43952</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="49">
+        <v>43952</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="49">
+        <v>43952</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="49"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="49">
+        <v>43953</v>
+      </c>
+      <c r="B66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="49">
+        <v>43953</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="49">
+        <v>43953</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="49">
+        <v>43953</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="49">
+        <v>43953</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="49"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="49">
+        <v>43954</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="49">
+        <v>43954</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="49">
+        <v>43954</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="49">
+        <v>43954</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="49">
+        <v>43954</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="49"/>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="49">
+        <v>43955</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="49">
+        <v>43955</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="49">
+        <v>43955</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="49">
+        <v>43955</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="49">
+        <v>43955</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="49"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="49">
+        <v>43956</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="49">
+        <v>43956</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="49">
+        <v>43956</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="49">
+        <v>43956</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="49">
+        <v>43956</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="49"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="49">
+        <v>43957</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="49">
+        <v>43957</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="49">
+        <v>43957</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="49">
+        <v>43957</v>
+      </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="49">
+        <v>43957</v>
+      </c>
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="49"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="49">
+        <v>43958</v>
+      </c>
+      <c r="B101" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="49">
+        <v>43958</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="49">
+        <v>43958</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="49">
+        <v>43958</v>
+      </c>
+      <c r="B104" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="49">
+        <v>43958</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="49"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="49">
+        <v>43959</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="49">
+        <v>43959</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="49">
+        <v>43959</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="49">
+        <v>43959</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="49">
+        <v>43959</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="49"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="49">
+        <v>43960</v>
+      </c>
+      <c r="B115" t="s">
+        <v>14</v>
+      </c>
+      <c r="C115">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="49">
+        <v>43960</v>
+      </c>
+      <c r="B116" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="49">
+        <v>43960</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="49">
+        <v>43960</v>
+      </c>
+      <c r="B118" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="49">
+        <v>43960</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="49"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="49">
+        <v>43961</v>
+      </c>
+      <c r="B122" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="49">
+        <v>43961</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="49">
+        <v>43961</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="49">
+        <v>43961</v>
+      </c>
+      <c r="B125" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="49">
+        <v>43961</v>
+      </c>
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="49">
         <v>43962</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B129" t="s">
+        <v>14</v>
+      </c>
+      <c r="C129">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="49">
+        <v>43962</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="49">
+        <v>43962</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="49">
+        <v>43962</v>
+      </c>
+      <c r="B132" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="49">
+        <v>43962</v>
+      </c>
+      <c r="B133" t="s">
         <v>18</v>
       </c>
-      <c r="C17">
+      <c r="C133">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="19">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
@@ -34209,7 +35648,7 @@
         <f>+IFERROR(VLOOKUP(B1052,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1052" s="96">
+      <c r="C1052" s="92">
         <v>44140</v>
       </c>
       <c r="D1052">
@@ -34232,7 +35671,7 @@
         <f>+IFERROR(VLOOKUP(B1053,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1053" s="96">
+      <c r="C1053" s="92">
         <v>44140</v>
       </c>
       <c r="D1053">
@@ -34255,7 +35694,7 @@
         <f>+IFERROR(VLOOKUP(B1054,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1054" s="96">
+      <c r="C1054" s="92">
         <v>44140</v>
       </c>
       <c r="D1054">
@@ -34278,7 +35717,7 @@
         <f>+IFERROR(VLOOKUP(B1055,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1055" s="96">
+      <c r="C1055" s="92">
         <v>44140</v>
       </c>
       <c r="D1055">
@@ -34301,7 +35740,7 @@
         <f>+IFERROR(VLOOKUP(B1056,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1056" s="96">
+      <c r="C1056" s="92">
         <v>44140</v>
       </c>
       <c r="D1056">
@@ -34324,7 +35763,7 @@
         <f>+IFERROR(VLOOKUP(B1057,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1057" s="96">
+      <c r="C1057" s="92">
         <v>44140</v>
       </c>
       <c r="D1057">
@@ -34347,7 +35786,7 @@
         <f>+IFERROR(VLOOKUP(B1058,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1058" s="96">
+      <c r="C1058" s="92">
         <v>44140</v>
       </c>
       <c r="D1058">
@@ -34370,7 +35809,7 @@
         <f>+IFERROR(VLOOKUP(B1059,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1059" s="96">
+      <c r="C1059" s="92">
         <v>44140</v>
       </c>
       <c r="D1059">
@@ -34393,7 +35832,7 @@
         <f>+IFERROR(VLOOKUP(B1060,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1060" s="96">
+      <c r="C1060" s="92">
         <v>44140</v>
       </c>
       <c r="D1060">
@@ -34416,7 +35855,7 @@
         <f>+IFERROR(VLOOKUP(B1061,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1061" s="96">
+      <c r="C1061" s="92">
         <v>44140</v>
       </c>
       <c r="D1061">
@@ -34439,7 +35878,7 @@
         <f>+IFERROR(VLOOKUP(B1062,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1062" s="96">
+      <c r="C1062" s="92">
         <v>44140</v>
       </c>
       <c r="D1062">
@@ -34462,7 +35901,7 @@
         <f>+IFERROR(VLOOKUP(B1063,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1063" s="96">
+      <c r="C1063" s="92">
         <v>44140</v>
       </c>
       <c r="D1063">
@@ -34485,7 +35924,7 @@
         <f>+IFERROR(VLOOKUP(B1064,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1064" s="96">
+      <c r="C1064" s="92">
         <v>44140</v>
       </c>
       <c r="D1064">
@@ -34508,7 +35947,7 @@
         <f>+IFERROR(VLOOKUP(B1065,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1065" s="96">
+      <c r="C1065" s="92">
         <v>44140</v>
       </c>
       <c r="D1065">
@@ -34531,7 +35970,7 @@
         <f>+IFERROR(VLOOKUP(B1066,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1066" s="96">
+      <c r="C1066" s="92">
         <v>44140</v>
       </c>
       <c r="D1066">
@@ -34554,7 +35993,7 @@
         <f>+IFERROR(VLOOKUP(B1067,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1067" s="96">
+      <c r="C1067" s="92">
         <v>44140</v>
       </c>
       <c r="D1067">
@@ -34577,7 +36016,7 @@
         <f>+IFERROR(VLOOKUP(B1068,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1068" s="96">
+      <c r="C1068" s="92">
         <v>44140</v>
       </c>
       <c r="D1068">
@@ -34600,7 +36039,7 @@
         <f>+IFERROR(VLOOKUP(B1069,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1069" s="96">
+      <c r="C1069" s="92">
         <v>44140</v>
       </c>
       <c r="D1069">
@@ -34623,7 +36062,7 @@
         <f>+IFERROR(VLOOKUP(B1070,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1070" s="96">
+      <c r="C1070" s="92">
         <v>44140</v>
       </c>
       <c r="D1070">
@@ -34646,7 +36085,7 @@
         <f>+IFERROR(VLOOKUP(B1071,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1071" s="96">
+      <c r="C1071" s="92">
         <v>44140</v>
       </c>
       <c r="D1071">
@@ -34669,7 +36108,7 @@
         <f>+IFERROR(VLOOKUP(B1072,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1072" s="96">
+      <c r="C1072" s="92">
         <v>44140</v>
       </c>
       <c r="D1072">
@@ -34692,7 +36131,7 @@
         <f>+IFERROR(VLOOKUP(B1073,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1073" s="96">
+      <c r="C1073" s="92">
         <v>44140</v>
       </c>
       <c r="D1073">
@@ -34715,7 +36154,7 @@
         <f>+IFERROR(VLOOKUP(B1074,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1074" s="96">
+      <c r="C1074" s="92">
         <v>44140</v>
       </c>
       <c r="D1074">
@@ -34738,7 +36177,7 @@
         <f>+IFERROR(VLOOKUP(B1075,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1075" s="96">
+      <c r="C1075" s="92">
         <v>44140</v>
       </c>
       <c r="D1075">
@@ -34761,7 +36200,7 @@
         <f>+IFERROR(VLOOKUP(B1076,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1076" s="96">
+      <c r="C1076" s="92">
         <v>44140</v>
       </c>
       <c r="D1076">
@@ -34784,7 +36223,7 @@
         <f>+IFERROR(VLOOKUP(B1077,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1077" s="96">
+      <c r="C1077" s="92">
         <v>44140</v>
       </c>
       <c r="D1077">
@@ -34807,7 +36246,7 @@
         <f>+IFERROR(VLOOKUP(B1078,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1078" s="96">
+      <c r="C1078" s="92">
         <v>44140</v>
       </c>
       <c r="D1078">
@@ -34830,7 +36269,7 @@
         <f>+IFERROR(VLOOKUP(B1079,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1079" s="96">
+      <c r="C1079" s="92">
         <v>44140</v>
       </c>
       <c r="D1079">
@@ -34853,7 +36292,7 @@
         <f>+IFERROR(VLOOKUP(B1080,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1080" s="96">
+      <c r="C1080" s="92">
         <v>44140</v>
       </c>
       <c r="D1080">
@@ -34876,7 +36315,7 @@
         <f>+IFERROR(VLOOKUP(B1081,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1081" s="96">
+      <c r="C1081" s="92">
         <v>44140</v>
       </c>
       <c r="D1081">
@@ -34899,7 +36338,7 @@
         <f>+IFERROR(VLOOKUP(B1082,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1082" s="96">
+      <c r="C1082" s="92">
         <v>44140</v>
       </c>
       <c r="D1082">
@@ -34922,7 +36361,7 @@
         <f>+IFERROR(VLOOKUP(B1083,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1083" s="96">
+      <c r="C1083" s="92">
         <v>44140</v>
       </c>
       <c r="D1083">
@@ -34945,7 +36384,7 @@
         <f>+IFERROR(VLOOKUP(B1084,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1084" s="96">
+      <c r="C1084" s="92">
         <v>44140</v>
       </c>
       <c r="D1084">
@@ -34968,7 +36407,7 @@
         <f>+IFERROR(VLOOKUP(B1085,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1085" s="96">
+      <c r="C1085" s="92">
         <v>44140</v>
       </c>
       <c r="D1085">
@@ -34991,7 +36430,7 @@
         <f>+IFERROR(VLOOKUP(B1086,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1086" s="96">
+      <c r="C1086" s="92">
         <v>44140</v>
       </c>
       <c r="D1086">
@@ -35014,7 +36453,7 @@
         <f>+IFERROR(VLOOKUP(B1087,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1087" s="96">
+      <c r="C1087" s="92">
         <v>44140</v>
       </c>
       <c r="D1087">
@@ -35037,7 +36476,7 @@
         <f>+IFERROR(VLOOKUP(B1088,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1088" s="96">
+      <c r="C1088" s="92">
         <v>44140</v>
       </c>
       <c r="D1088">
@@ -35060,7 +36499,7 @@
         <f>+IFERROR(VLOOKUP(B1089,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1089" s="96">
+      <c r="C1089" s="92">
         <v>44140</v>
       </c>
       <c r="D1089">
@@ -35083,7 +36522,7 @@
         <f>+IFERROR(VLOOKUP(B1090,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1090" s="96">
+      <c r="C1090" s="92">
         <v>44140</v>
       </c>
       <c r="D1090">
@@ -35106,7 +36545,7 @@
         <f>+IFERROR(VLOOKUP(B1091,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1091" s="96">
+      <c r="C1091" s="92">
         <v>44140</v>
       </c>
       <c r="D1091">
@@ -35129,7 +36568,7 @@
         <f>+IFERROR(VLOOKUP(B1092,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1092" s="96">
+      <c r="C1092" s="92">
         <v>44140</v>
       </c>
       <c r="D1092">
@@ -35152,7 +36591,7 @@
         <f>+IFERROR(VLOOKUP(B1093,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1093" s="96">
+      <c r="C1093" s="92">
         <v>44140</v>
       </c>
       <c r="D1093">
@@ -35175,7 +36614,7 @@
         <f>+IFERROR(VLOOKUP(B1094,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1094" s="96">
+      <c r="C1094" s="92">
         <v>44140</v>
       </c>
       <c r="D1094">
@@ -35198,7 +36637,7 @@
         <f>+IFERROR(VLOOKUP(B1095,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1095" s="96">
+      <c r="C1095" s="92">
         <v>44140</v>
       </c>
       <c r="D1095">
@@ -35221,7 +36660,7 @@
         <f>+IFERROR(VLOOKUP(B1096,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1096" s="96">
+      <c r="C1096" s="92">
         <v>44140</v>
       </c>
       <c r="D1096">
@@ -35244,7 +36683,7 @@
         <f>+IFERROR(VLOOKUP(B1097,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1097" s="96">
+      <c r="C1097" s="92">
         <v>44140</v>
       </c>
       <c r="D1097">
@@ -35267,7 +36706,7 @@
         <f>+IFERROR(VLOOKUP(B1098,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1098" s="96">
+      <c r="C1098" s="92">
         <v>44140</v>
       </c>
       <c r="D1098">
@@ -35290,7 +36729,7 @@
         <f>+IFERROR(VLOOKUP(B1099,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1099" s="96">
+      <c r="C1099" s="92">
         <v>44140</v>
       </c>
       <c r="D1099">
@@ -35313,7 +36752,7 @@
         <f>+IFERROR(VLOOKUP(B1100,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1100" s="96">
+      <c r="C1100" s="92">
         <v>44140</v>
       </c>
       <c r="D1100">
@@ -35336,7 +36775,7 @@
         <f>+IFERROR(VLOOKUP(B1101,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1101" s="96">
+      <c r="C1101" s="92">
         <v>44140</v>
       </c>
       <c r="D1101">
@@ -35359,7 +36798,7 @@
         <f>+IFERROR(VLOOKUP(B1102,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1102" s="96">
+      <c r="C1102" s="92">
         <v>44140</v>
       </c>
       <c r="D1102">
@@ -35382,7 +36821,7 @@
         <f>+IFERROR(VLOOKUP(B1103,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1103" s="96">
+      <c r="C1103" s="92">
         <v>44140</v>
       </c>
       <c r="D1103">
@@ -35405,7 +36844,7 @@
         <f>+IFERROR(VLOOKUP(B1104,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1104" s="96">
+      <c r="C1104" s="92">
         <v>44140</v>
       </c>
       <c r="D1104">
@@ -35428,7 +36867,7 @@
         <f>+IFERROR(VLOOKUP(B1105,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1105" s="96">
+      <c r="C1105" s="92">
         <v>44140</v>
       </c>
       <c r="D1105">
@@ -35451,7 +36890,7 @@
         <f>+IFERROR(VLOOKUP(B1106,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1106" s="96">
+      <c r="C1106" s="92">
         <v>44140</v>
       </c>
       <c r="D1106">
@@ -35474,7 +36913,7 @@
         <f>+IFERROR(VLOOKUP(B1107,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1107" s="96">
+      <c r="C1107" s="92">
         <v>44140</v>
       </c>
       <c r="D1107">
@@ -35497,7 +36936,7 @@
         <f>+IFERROR(VLOOKUP(B1108,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1108" s="96">
+      <c r="C1108" s="92">
         <v>44140</v>
       </c>
       <c r="D1108">
@@ -35520,7 +36959,7 @@
         <f>+IFERROR(VLOOKUP(B1109,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1109" s="96">
+      <c r="C1109" s="92">
         <v>44140</v>
       </c>
       <c r="D1109">
@@ -35543,7 +36982,7 @@
         <f>+IFERROR(VLOOKUP(B1110,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1110" s="96">
+      <c r="C1110" s="92">
         <v>44140</v>
       </c>
       <c r="D1110">
@@ -35566,7 +37005,7 @@
         <f>+IFERROR(VLOOKUP(B1111,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1111" s="96">
+      <c r="C1111" s="92">
         <v>44140</v>
       </c>
       <c r="D1111">
@@ -35589,7 +37028,7 @@
         <f>+IFERROR(VLOOKUP(B1112,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1112" s="96">
+      <c r="C1112" s="92">
         <v>44140</v>
       </c>
       <c r="D1112">
@@ -35612,7 +37051,7 @@
         <f>+IFERROR(VLOOKUP(B1113,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
         <v>No Informado</v>
       </c>
-      <c r="C1113" s="96">
+      <c r="C1113" s="92">
         <v>44140</v>
       </c>
       <c r="D1113">
@@ -35631,13 +37070,13 @@
       </c>
     </row>
     <row r="1114" spans="1:8" ht="15">
-      <c r="C1114" s="96"/>
+      <c r="C1114" s="92"/>
       <c r="E1114" s="53"/>
       <c r="F1114" s="53"/>
       <c r="G1114" s="53"/>
     </row>
     <row r="1115" spans="1:8" ht="15">
-      <c r="C1115" s="96"/>
+      <c r="C1115" s="92"/>
       <c r="E1115" s="53"/>
       <c r="F1115" s="53"/>
       <c r="G1115" s="53"/>
@@ -57438,7 +58877,7 @@
     </row>
     <row r="12" spans="2:8">
       <c r="B12" s="83"/>
-      <c r="C12" s="99"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="61" t="s">
         <v>33</v>
       </c>
@@ -57448,7 +58887,7 @@
       <c r="F12" s="61" t="s">
         <v>888</v>
       </c>
-      <c r="G12" s="97" t="s">
+      <c r="G12" s="93" t="s">
         <v>886</v>
       </c>
       <c r="H12" s="84" t="s">
@@ -57467,7 +58906,7 @@
       <c r="F13" s="80" t="s">
         <v>885</v>
       </c>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="94" t="s">
         <v>890</v>
       </c>
       <c r="H13" s="81" t="s">
@@ -57486,7 +58925,7 @@
       <c r="F14" s="80" t="s">
         <v>885</v>
       </c>
-      <c r="G14" s="98" t="s">
+      <c r="G14" s="94" t="s">
         <v>890</v>
       </c>
       <c r="H14" s="81" t="s">
@@ -57507,7 +58946,7 @@
       <c r="F15" s="80" t="s">
         <v>894</v>
       </c>
-      <c r="G15" s="98">
+      <c r="G15" s="94">
         <v>43895</v>
       </c>
       <c r="H15" s="81" t="s">
@@ -57526,7 +58965,7 @@
       <c r="F16" s="80" t="s">
         <v>869</v>
       </c>
-      <c r="G16" s="98">
+      <c r="G16" s="94">
         <v>43895</v>
       </c>
       <c r="H16" s="81" t="s">
@@ -57547,7 +58986,7 @@
       <c r="F17" s="82" t="s">
         <v>899</v>
       </c>
-      <c r="G17" s="98">
+      <c r="G17" s="94">
         <v>44017</v>
       </c>
       <c r="H17" s="81" t="s">
@@ -57568,7 +59007,7 @@
       <c r="F18" s="80" t="s">
         <v>902</v>
       </c>
-      <c r="G18" s="98">
+      <c r="G18" s="94">
         <v>44140</v>
       </c>
       <c r="H18" s="81" t="s">
@@ -57624,7 +59063,7 @@
       <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="91">
+      <c r="C5" s="96">
         <v>679</v>
       </c>
     </row>
@@ -57632,13 +59071,13 @@
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="91"/>
+      <c r="C6" s="96"/>
     </row>
     <row r="7" spans="2:3" ht="15" thickBot="1">
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="92"/>
+      <c r="C7" s="97"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="85" t="s">
@@ -57656,7 +59095,7 @@
       <c r="B12" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="93">
+      <c r="C12" s="98">
         <v>142</v>
       </c>
     </row>
@@ -57664,19 +59103,19 @@
       <c r="B13" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="93"/>
+      <c r="C13" s="98"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="87" t="s">
         <v>803</v>
       </c>
-      <c r="C14" s="93"/>
+      <c r="C14" s="98"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="89" t="s">
         <v>745</v>
       </c>
-      <c r="C15" s="94"/>
+      <c r="C15" s="99"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="85" t="s">
@@ -57690,7 +59129,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="90"/>
-      <c r="C19" s="93">
+      <c r="C19" s="98">
         <v>128</v>
       </c>
     </row>
@@ -57698,25 +59137,25 @@
       <c r="B20" s="87" t="s">
         <v>506</v>
       </c>
-      <c r="C20" s="93"/>
+      <c r="C20" s="98"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="93"/>
+      <c r="C21" s="98"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="87" t="s">
         <v>449</v>
       </c>
-      <c r="C22" s="93"/>
+      <c r="C22" s="98"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="89" t="s">
         <v>907</v>
       </c>
-      <c r="C23" s="94"/>
+      <c r="C23" s="99"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="6" t="s">
@@ -57732,7 +59171,7 @@
       <c r="B27" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C27" s="91">
+      <c r="C27" s="96">
         <v>87</v>
       </c>
     </row>
@@ -57740,25 +59179,25 @@
       <c r="B28" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C28" s="91"/>
+      <c r="C28" s="96"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C29" s="91"/>
+      <c r="C29" s="96"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C30" s="91"/>
+      <c r="C30" s="96"/>
     </row>
     <row r="31" spans="2:3" ht="15" thickBot="1">
       <c r="B31" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C31" s="92"/>
+      <c r="C31" s="97"/>
     </row>
     <row r="32" spans="2:3" ht="15" thickBot="1"/>
     <row r="33" spans="2:3">
@@ -57775,7 +59214,7 @@
       <c r="B35" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="91">
+      <c r="C35" s="96">
         <v>78</v>
       </c>
     </row>
@@ -57783,25 +59222,25 @@
       <c r="B36" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="C36" s="91"/>
+      <c r="C36" s="96"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="91"/>
+      <c r="C37" s="96"/>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="91"/>
+      <c r="C38" s="96"/>
     </row>
     <row r="39" spans="2:3" ht="15" thickBot="1">
       <c r="B39" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C39" s="92"/>
+      <c r="C39" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/datacovidgt/DATOS RRSS GT.xlsx
+++ b/datacovidgt/DATOS RRSS GT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9f999e057ad8c646/CORONA VIRUS/DATACOVID GT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1084" documentId="8_{9F1230D5-64C1-4EE0-9758-3A2331A06A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09465DA5-C599-4FF3-8AEA-03AC7209A716}"/>
+  <xr:revisionPtr revIDLastSave="1222" documentId="8_{9F1230D5-64C1-4EE0-9758-3A2331A06A47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6DC1F214-4DCC-4460-9062-341B89CB8882}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Nuevos " sheetId="6" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5368" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5540" uniqueCount="910">
   <si>
     <t>DIA</t>
   </si>
@@ -2774,11 +2774,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="d/m/yyyy"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -3321,7 +3322,7 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3519,6 +3520,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4141,8 +4145,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C7124E47-3D2D-419B-8945-4E2B1598725E}" name="NACIONAL" displayName="NACIONAL" ref="A1:K61" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" headerRowBorderDxfId="33" tableBorderDxfId="34">
-  <autoFilter ref="A1:K61" xr:uid="{33A3F7D7-6411-4CF7-BF16-EE442911A307}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C7124E47-3D2D-419B-8945-4E2B1598725E}" name="NACIONAL" displayName="NACIONAL" ref="A1:K62" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" headerRowBorderDxfId="33" tableBorderDxfId="34">
+  <autoFilter ref="A1:K62" xr:uid="{33A3F7D7-6411-4CF7-BF16-EE442911A307}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{D8D5599C-26F8-4B96-A944-93A638641D17}" name="DIA" dataDxfId="32"/>
     <tableColumn id="2" xr3:uid="{352161EA-93C1-4162-BA39-C8F655D430A1}" name="FECHA" dataDxfId="31"/>
@@ -4169,8 +4173,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C2742386-4B94-4797-AF7D-79F889580DBB}" name="Casos_Region3" displayName="Casos_Region3" ref="A2:C102" totalsRowShown="0">
-  <autoFilter ref="A2:C102" xr:uid="{3748EFC6-3E6C-4AD5-BC4D-61D668B7DCC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C2742386-4B94-4797-AF7D-79F889580DBB}" name="Casos_Region3" displayName="Casos_Region3" ref="A2:C107" totalsRowShown="0">
+  <autoFilter ref="A2:C107" xr:uid="{3748EFC6-3E6C-4AD5-BC4D-61D668B7DCC2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{95DE0B55-2992-4D1F-9E73-CD885A43DBA7}" name="Fecha?" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{5B276D1F-061C-4DB2-A173-70FB0CD1A719}" name="Región"/>
@@ -4181,8 +4185,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{098B8ABD-39CC-481F-B5DD-8A1D47B5485B}" name="Detalle_Casos" displayName="Detalle_Casos" ref="A1:H1115" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
-  <autoFilter ref="A1:H1115" xr:uid="{D721CE67-7EB3-4B8C-BCC9-32CE3BEDA9AC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{098B8ABD-39CC-481F-B5DD-8A1D47B5485B}" name="Detalle_Casos" displayName="Detalle_Casos" ref="A1:H1197" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" headerRowBorderDxfId="17" tableBorderDxfId="18">
+  <autoFilter ref="A1:H1197" xr:uid="{D721CE67-7EB3-4B8C-BCC9-32CE3BEDA9AC}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{65A687D5-CA23-4C97-A29B-DA50B325DBAE}" name="Región COVID">
       <calculatedColumnFormula>+IFERROR(VLOOKUP(B2,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</calculatedColumnFormula>
@@ -4534,8 +4538,8 @@
   </sheetPr>
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A36" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView showGridLines="0" topLeftCell="C42" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -6913,8 +6917,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
-      <c r="D62" s="11"/>
+    <row r="62" spans="1:12" ht="15">
+      <c r="A62" s="61">
+        <v>61</v>
+      </c>
+      <c r="B62" s="95">
+        <v>43963</v>
+      </c>
+      <c r="C62" s="62">
+        <v>85</v>
+      </c>
+      <c r="D62" s="63">
+        <v>1199</v>
+      </c>
+      <c r="E62" s="64">
+        <v>1050</v>
+      </c>
+      <c r="F62" s="65">
+        <v>120</v>
+      </c>
+      <c r="G62" s="66">
+        <v>27</v>
+      </c>
+      <c r="H62" s="62">
+        <f>+F62-F61</f>
+        <v>9</v>
+      </c>
+      <c r="I62" s="67">
+        <f>+G62-G61</f>
+        <v>1</v>
+      </c>
+      <c r="J62" s="68">
+        <f>+NACIONAL[[#This Row],[CONFIRMADOS]]-NACIONAL[[#This Row],[FALLECIDOS]]-NACIONAL[[#This Row],[RECUPERADOS]]</f>
+        <v>1052</v>
+      </c>
+      <c r="K62" s="69">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:12">
       <c r="D63" s="11"/>
@@ -6959,8 +6998,8 @@
   </sheetPr>
   <dimension ref="A2:C145"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView showGridLines="0" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -8081,13 +8120,60 @@
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="49"/>
+      <c r="A103" s="49">
+        <v>43963</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>735</v>
+      </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104" s="49"/>
-    </row>
-    <row r="106" spans="1:3" ht="15"/>
-    <row r="107" spans="1:3" ht="15"/>
+      <c r="A104" s="49">
+        <v>43963</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="49">
+        <v>43963</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15">
+      <c r="A106" s="49">
+        <v>43963</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15">
+      <c r="A107" s="49">
+        <v>43963</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>102</v>
+      </c>
+    </row>
     <row r="108" spans="1:3" ht="15"/>
     <row r="109" spans="1:3" ht="15"/>
     <row r="110" spans="1:3" ht="15"/>
@@ -8140,10 +8226,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:H1115"/>
+  <dimension ref="A1:H1197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1095" workbookViewId="0">
-      <selection activeCell="B1051" sqref="B1051:B1113"/>
+    <sheetView tabSelected="1" topLeftCell="A1112" workbookViewId="0">
+      <selection activeCell="H1114" sqref="H1114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -36824,16 +36910,2100 @@
       </c>
     </row>
     <row r="1114" spans="1:8">
-      <c r="C1114" s="90"/>
-      <c r="E1114" s="53"/>
+      <c r="A1114" t="str">
+        <f>+IFERROR(VLOOKUP(B1114,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1114" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1114">
+        <v>1115</v>
+      </c>
+      <c r="E1114" s="53">
+        <v>1</v>
+      </c>
       <c r="F1114" s="53"/>
-      <c r="G1114" s="53"/>
+      <c r="G1114" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1114">
+        <v>57</v>
+      </c>
     </row>
     <row r="1115" spans="1:8">
-      <c r="C1115" s="90"/>
-      <c r="E1115" s="53"/>
+      <c r="A1115" t="str">
+        <f>+IFERROR(VLOOKUP(B1115,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1115" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1115">
+        <v>1116</v>
+      </c>
+      <c r="E1115" s="53">
+        <v>1</v>
+      </c>
       <c r="F1115" s="53"/>
-      <c r="G1115" s="53"/>
+      <c r="G1115" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1115">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:8" ht="15">
+      <c r="A1116" t="str">
+        <f>+IFERROR(VLOOKUP(B1116,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1116" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1116">
+        <v>1117</v>
+      </c>
+      <c r="E1116" s="53"/>
+      <c r="F1116" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1116" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1116">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:8" ht="15">
+      <c r="A1117" t="str">
+        <f>+IFERROR(VLOOKUP(B1117,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1117" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1117">
+        <v>1118</v>
+      </c>
+      <c r="E1117" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1117" s="53"/>
+      <c r="G1117" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1117">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:8" ht="15">
+      <c r="A1118" t="str">
+        <f>+IFERROR(VLOOKUP(B1118,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1118" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1118">
+        <v>1119</v>
+      </c>
+      <c r="E1118" s="53"/>
+      <c r="F1118" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1118" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1118">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:8" ht="15">
+      <c r="A1119" t="str">
+        <f>+IFERROR(VLOOKUP(B1119,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1119" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1119">
+        <v>1120</v>
+      </c>
+      <c r="E1119" s="53"/>
+      <c r="F1119" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1119" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1119">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:8" ht="15">
+      <c r="A1120" t="str">
+        <f>+IFERROR(VLOOKUP(B1120,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1120" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1120">
+        <v>1121</v>
+      </c>
+      <c r="E1120" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1120" s="53"/>
+      <c r="G1120" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1120">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:8" ht="15">
+      <c r="A1121" t="str">
+        <f>+IFERROR(VLOOKUP(B1121,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1121" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1121">
+        <v>1122</v>
+      </c>
+      <c r="E1121" s="53"/>
+      <c r="F1121" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1121" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1121">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:8" ht="15">
+      <c r="A1122" t="str">
+        <f>+IFERROR(VLOOKUP(B1122,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1122" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1122">
+        <v>1123</v>
+      </c>
+      <c r="E1122" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1122" s="53"/>
+      <c r="G1122" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1122">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:8" ht="15">
+      <c r="A1123" t="str">
+        <f>+IFERROR(VLOOKUP(B1123,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1123" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1123">
+        <v>1124</v>
+      </c>
+      <c r="E1123" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1123" s="53"/>
+      <c r="G1123" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:8" ht="15">
+      <c r="A1124" t="str">
+        <f>+IFERROR(VLOOKUP(B1124,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1124" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1124">
+        <v>1125</v>
+      </c>
+      <c r="E1124" s="53"/>
+      <c r="F1124" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1124" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1124">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:8" ht="15">
+      <c r="A1125" t="str">
+        <f>+IFERROR(VLOOKUP(B1125,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1125" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1125">
+        <v>1126</v>
+      </c>
+      <c r="E1125" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1125" s="53"/>
+      <c r="G1125" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1125">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:8" ht="15">
+      <c r="A1126" t="str">
+        <f>+IFERROR(VLOOKUP(B1126,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1126" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1126">
+        <v>1127</v>
+      </c>
+      <c r="E1126" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1126" s="53"/>
+      <c r="G1126" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1126">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:8" ht="15">
+      <c r="A1127" t="str">
+        <f>+IFERROR(VLOOKUP(B1127,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1127" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1127">
+        <v>1128</v>
+      </c>
+      <c r="E1127" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1127" s="53"/>
+      <c r="G1127" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1127">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:8" ht="15">
+      <c r="A1128" t="str">
+        <f>+IFERROR(VLOOKUP(B1128,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1128" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1128">
+        <v>1129</v>
+      </c>
+      <c r="E1128" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1128" s="53"/>
+      <c r="G1128" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1128">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:8" ht="15">
+      <c r="A1129" t="str">
+        <f>+IFERROR(VLOOKUP(B1129,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1129" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1129">
+        <v>1130</v>
+      </c>
+      <c r="E1129" s="53"/>
+      <c r="F1129" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1129" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1129">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:8" ht="15">
+      <c r="A1130" t="str">
+        <f>+IFERROR(VLOOKUP(B1130,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1130" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1130">
+        <v>1131</v>
+      </c>
+      <c r="E1130" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1130" s="53"/>
+      <c r="G1130" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1130">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:8" ht="15">
+      <c r="A1131" t="str">
+        <f>+IFERROR(VLOOKUP(B1131,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1131" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1131">
+        <v>1132</v>
+      </c>
+      <c r="E1131" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1131" s="53"/>
+      <c r="G1131" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1131">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:8" ht="15">
+      <c r="A1132" t="str">
+        <f>+IFERROR(VLOOKUP(B1132,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1132" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1132">
+        <v>1133</v>
+      </c>
+      <c r="E1132" s="53"/>
+      <c r="F1132" s="53"/>
+      <c r="G1132" s="53"/>
+      <c r="H1132">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:8" ht="15">
+      <c r="A1133" t="str">
+        <f>+IFERROR(VLOOKUP(B1133,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1133" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1133">
+        <v>1134</v>
+      </c>
+      <c r="E1133" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1133" s="53"/>
+      <c r="G1133" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1133">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:8" ht="15">
+      <c r="A1134" t="str">
+        <f>+IFERROR(VLOOKUP(B1134,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1134" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1134">
+        <v>1135</v>
+      </c>
+      <c r="E1134" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1134" s="53"/>
+      <c r="G1134" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1134">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:8" ht="15">
+      <c r="A1135" t="str">
+        <f>+IFERROR(VLOOKUP(B1135,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1135" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1135">
+        <v>1136</v>
+      </c>
+      <c r="E1135" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1135" s="53"/>
+      <c r="G1135" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1135">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:8" ht="15">
+      <c r="A1136" t="str">
+        <f>+IFERROR(VLOOKUP(B1136,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1136" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1136">
+        <v>1137</v>
+      </c>
+      <c r="E1136" s="53"/>
+      <c r="F1136" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1136" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1136">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:8" ht="15">
+      <c r="A1137" t="str">
+        <f>+IFERROR(VLOOKUP(B1137,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1137" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1137">
+        <v>1138</v>
+      </c>
+      <c r="E1137" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1137" s="53"/>
+      <c r="G1137" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1137">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:8" ht="15">
+      <c r="A1138" t="str">
+        <f>+IFERROR(VLOOKUP(B1138,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1138" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1138">
+        <v>1139</v>
+      </c>
+      <c r="E1138" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1138" s="53"/>
+      <c r="G1138" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1138">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:8" ht="15">
+      <c r="A1139" t="str">
+        <f>+IFERROR(VLOOKUP(B1139,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1139" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1139">
+        <v>1140</v>
+      </c>
+      <c r="E1139" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1139" s="53"/>
+      <c r="G1139" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1139">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:8" ht="15">
+      <c r="A1140" t="str">
+        <f>+IFERROR(VLOOKUP(B1140,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1140" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1140">
+        <v>1141</v>
+      </c>
+      <c r="E1140" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1140" s="53"/>
+      <c r="G1140" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1140">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:8" ht="15">
+      <c r="A1141" t="str">
+        <f>+IFERROR(VLOOKUP(B1141,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1141" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1141">
+        <v>1142</v>
+      </c>
+      <c r="E1141" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1141" s="53"/>
+      <c r="G1141" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1141">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:8" ht="15">
+      <c r="A1142" t="str">
+        <f>+IFERROR(VLOOKUP(B1142,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1142" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1142">
+        <v>1143</v>
+      </c>
+      <c r="E1142" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1142" s="53"/>
+      <c r="G1142" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1142">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:8" ht="15">
+      <c r="A1143" t="str">
+        <f>+IFERROR(VLOOKUP(B1143,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1143" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1143">
+        <v>1144</v>
+      </c>
+      <c r="E1143" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1143" s="53"/>
+      <c r="G1143" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1143">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:8" ht="15">
+      <c r="A1144" t="str">
+        <f>+IFERROR(VLOOKUP(B1144,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1144" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1144">
+        <v>1145</v>
+      </c>
+      <c r="E1144" s="53"/>
+      <c r="F1144" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1144" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1144">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:8" ht="15">
+      <c r="A1145" t="str">
+        <f>+IFERROR(VLOOKUP(B1145,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1145" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1145">
+        <v>1146</v>
+      </c>
+      <c r="E1145" s="53"/>
+      <c r="F1145" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1145" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1145">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:8" ht="15">
+      <c r="A1146" t="str">
+        <f>+IFERROR(VLOOKUP(B1146,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1146" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1146">
+        <v>1147</v>
+      </c>
+      <c r="E1146" s="53"/>
+      <c r="F1146" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1146" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1146">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:8" ht="15">
+      <c r="A1147" t="str">
+        <f>+IFERROR(VLOOKUP(B1147,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1147" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1147">
+        <v>1148</v>
+      </c>
+      <c r="E1147" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1147" s="53"/>
+      <c r="G1147" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1147">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:8" ht="15">
+      <c r="A1148" t="str">
+        <f>+IFERROR(VLOOKUP(B1148,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1148" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1148">
+        <v>1149</v>
+      </c>
+      <c r="E1148" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1148" s="53"/>
+      <c r="G1148" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1148">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:8" ht="15">
+      <c r="A1149" t="str">
+        <f>+IFERROR(VLOOKUP(B1149,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1149" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1149">
+        <v>1150</v>
+      </c>
+      <c r="E1149" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1149" s="53"/>
+      <c r="G1149" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1149">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:8" ht="15">
+      <c r="A1150" t="str">
+        <f>+IFERROR(VLOOKUP(B1150,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1150" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1150">
+        <v>1151</v>
+      </c>
+      <c r="E1150" s="53"/>
+      <c r="F1150" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1150" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1150">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:8" ht="15">
+      <c r="A1151" t="str">
+        <f>+IFERROR(VLOOKUP(B1151,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1151" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1151">
+        <v>1152</v>
+      </c>
+      <c r="E1151" s="53"/>
+      <c r="F1151" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1151" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1151">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:8" ht="15">
+      <c r="A1152" t="str">
+        <f>+IFERROR(VLOOKUP(B1152,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1152" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1152">
+        <v>1153</v>
+      </c>
+      <c r="E1152" s="53"/>
+      <c r="F1152" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1152" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1152">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:8" ht="15">
+      <c r="A1153" t="str">
+        <f>+IFERROR(VLOOKUP(B1153,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1153" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1153">
+        <v>1154</v>
+      </c>
+      <c r="E1153" s="53"/>
+      <c r="F1153" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1153" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1153">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:8" ht="15">
+      <c r="A1154" t="str">
+        <f>+IFERROR(VLOOKUP(B1154,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1154" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1154">
+        <v>1155</v>
+      </c>
+      <c r="E1154" s="53"/>
+      <c r="F1154" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1154" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1154">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:8" ht="15">
+      <c r="A1155" t="str">
+        <f>+IFERROR(VLOOKUP(B1155,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1155" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1155">
+        <v>1156</v>
+      </c>
+      <c r="E1155" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1155" s="53"/>
+      <c r="G1155" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1155">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:8" ht="15">
+      <c r="A1156" t="str">
+        <f>+IFERROR(VLOOKUP(B1156,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1156" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1156">
+        <v>1157</v>
+      </c>
+      <c r="E1156" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1156" s="53"/>
+      <c r="G1156" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1156">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:8" ht="15">
+      <c r="A1157" t="str">
+        <f>+IFERROR(VLOOKUP(B1157,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1157" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1157">
+        <v>1158</v>
+      </c>
+      <c r="E1157" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1157" s="53"/>
+      <c r="G1157" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1157">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:8" ht="15">
+      <c r="A1158" t="str">
+        <f>+IFERROR(VLOOKUP(B1158,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1158" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1158">
+        <v>1159</v>
+      </c>
+      <c r="E1158" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1158" s="53"/>
+      <c r="G1158" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1158">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8" ht="15">
+      <c r="A1159" t="str">
+        <f>+IFERROR(VLOOKUP(B1159,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1159" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1159">
+        <v>1160</v>
+      </c>
+      <c r="E1159" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1159" s="53"/>
+      <c r="G1159" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1159">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8" ht="15">
+      <c r="A1160" t="str">
+        <f>+IFERROR(VLOOKUP(B1160,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1160" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1160">
+        <v>1161</v>
+      </c>
+      <c r="E1160" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1160" s="53"/>
+      <c r="G1160" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1160">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:8" ht="15">
+      <c r="A1161" t="str">
+        <f>+IFERROR(VLOOKUP(B1161,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1161" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1161">
+        <v>1162</v>
+      </c>
+      <c r="E1161" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1161" s="53"/>
+      <c r="G1161" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1161">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:8" ht="15">
+      <c r="A1162" t="str">
+        <f>+IFERROR(VLOOKUP(B1162,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1162" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1162">
+        <v>1164</v>
+      </c>
+      <c r="E1162" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1162" s="53"/>
+      <c r="G1162" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1162">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:8" ht="15">
+      <c r="A1163" t="str">
+        <f>+IFERROR(VLOOKUP(B1163,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1163" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1163">
+        <v>1165</v>
+      </c>
+      <c r="E1163" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1163" s="53"/>
+      <c r="G1163" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1163">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:8" ht="15">
+      <c r="A1164" t="str">
+        <f>+IFERROR(VLOOKUP(B1164,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1164" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1164">
+        <v>1166</v>
+      </c>
+      <c r="E1164" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1164" s="53"/>
+      <c r="G1164" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1164">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:8" ht="15">
+      <c r="A1165" t="str">
+        <f>+IFERROR(VLOOKUP(B1165,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1165" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1165">
+        <v>1167</v>
+      </c>
+      <c r="E1165" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1165" s="53"/>
+      <c r="G1165" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1165">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:8" ht="15">
+      <c r="A1166" t="str">
+        <f>+IFERROR(VLOOKUP(B1166,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1166" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1166">
+        <v>1168</v>
+      </c>
+      <c r="E1166" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1166" s="53"/>
+      <c r="G1166" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1166">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:8" ht="15">
+      <c r="A1167" t="str">
+        <f>+IFERROR(VLOOKUP(B1167,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1167" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1167">
+        <v>1169</v>
+      </c>
+      <c r="E1167" s="53"/>
+      <c r="F1167" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1167" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:8" ht="15">
+      <c r="A1168" t="str">
+        <f>+IFERROR(VLOOKUP(B1168,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1168" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1168">
+        <v>1170</v>
+      </c>
+      <c r="E1168" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1168" s="53"/>
+      <c r="G1168" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1168">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:8" ht="15">
+      <c r="A1169" t="str">
+        <f>+IFERROR(VLOOKUP(B1169,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1169" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1169">
+        <v>1171</v>
+      </c>
+      <c r="E1169" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1169" s="53"/>
+      <c r="G1169" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1169">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:8" ht="15">
+      <c r="A1170" t="str">
+        <f>+IFERROR(VLOOKUP(B1170,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1170" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1170">
+        <v>1172</v>
+      </c>
+      <c r="E1170" s="53"/>
+      <c r="F1170" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1170" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1170">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:8" ht="15">
+      <c r="A1171" t="str">
+        <f>+IFERROR(VLOOKUP(B1171,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1171" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1171">
+        <v>1173</v>
+      </c>
+      <c r="E1171" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1171" s="53"/>
+      <c r="G1171" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:8" ht="15">
+      <c r="A1172" t="str">
+        <f>+IFERROR(VLOOKUP(B1172,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1172" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1172">
+        <v>1174</v>
+      </c>
+      <c r="E1172" s="53"/>
+      <c r="F1172" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1172" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1172">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:8" ht="15">
+      <c r="A1173" t="str">
+        <f>+IFERROR(VLOOKUP(B1173,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1173" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1173">
+        <v>1175</v>
+      </c>
+      <c r="E1173" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1173" s="53"/>
+      <c r="G1173" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1173">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:8" ht="15">
+      <c r="A1174" t="str">
+        <f>+IFERROR(VLOOKUP(B1174,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1174" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1174">
+        <v>1176</v>
+      </c>
+      <c r="E1174" s="53"/>
+      <c r="F1174" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1174" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1174">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:8" ht="15">
+      <c r="A1175" t="str">
+        <f>+IFERROR(VLOOKUP(B1175,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1175" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1175">
+        <v>1177</v>
+      </c>
+      <c r="E1175" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1175" s="53"/>
+      <c r="G1175" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1175">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:8" ht="15">
+      <c r="A1176" t="str">
+        <f>+IFERROR(VLOOKUP(B1176,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1176" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1176">
+        <v>1178</v>
+      </c>
+      <c r="E1176" s="53"/>
+      <c r="F1176" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1176" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1176">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:8" ht="15">
+      <c r="A1177" t="str">
+        <f>+IFERROR(VLOOKUP(B1177,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1177" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1177">
+        <v>1179</v>
+      </c>
+      <c r="E1177" s="53"/>
+      <c r="F1177" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1177" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1177">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:8" ht="15">
+      <c r="A1178" t="str">
+        <f>+IFERROR(VLOOKUP(B1178,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1178" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1178">
+        <v>1180</v>
+      </c>
+      <c r="E1178" s="53"/>
+      <c r="F1178" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1178" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1178">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:8" ht="15">
+      <c r="A1179" t="str">
+        <f>+IFERROR(VLOOKUP(B1179,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1179" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1179">
+        <v>1181</v>
+      </c>
+      <c r="E1179" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1179" s="53"/>
+      <c r="G1179" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1179">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:8" ht="15">
+      <c r="A1180" t="str">
+        <f>+IFERROR(VLOOKUP(B1180,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1180" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1180">
+        <v>1182</v>
+      </c>
+      <c r="E1180" s="53"/>
+      <c r="F1180" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1180" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1180">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:8" ht="15">
+      <c r="A1181" t="str">
+        <f>+IFERROR(VLOOKUP(B1181,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1181" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1181">
+        <v>1183</v>
+      </c>
+      <c r="E1181" s="53"/>
+      <c r="F1181" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1181" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1181">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:8" ht="15">
+      <c r="A1182" t="str">
+        <f>+IFERROR(VLOOKUP(B1182,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1182" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1182">
+        <v>1184</v>
+      </c>
+      <c r="E1182" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1182" s="53"/>
+      <c r="G1182" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1182">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:8" ht="15">
+      <c r="A1183" t="str">
+        <f>+IFERROR(VLOOKUP(B1183,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1183" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1183">
+        <v>1185</v>
+      </c>
+      <c r="E1183" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1183" s="53"/>
+      <c r="G1183" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1183">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:8" ht="15">
+      <c r="A1184" t="str">
+        <f>+IFERROR(VLOOKUP(B1184,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1184" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1184">
+        <v>1186</v>
+      </c>
+      <c r="E1184" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1184" s="53"/>
+      <c r="G1184" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1184">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:8" ht="15">
+      <c r="A1185" t="str">
+        <f>+IFERROR(VLOOKUP(B1185,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1185" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1185">
+        <v>1187</v>
+      </c>
+      <c r="E1185" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1185" s="53"/>
+      <c r="G1185" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1185">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:8" ht="15">
+      <c r="A1186" t="str">
+        <f>+IFERROR(VLOOKUP(B1186,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1186" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1186">
+        <v>1188</v>
+      </c>
+      <c r="E1186" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1186" s="53"/>
+      <c r="G1186" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1186">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:8" ht="15">
+      <c r="A1187" t="str">
+        <f>+IFERROR(VLOOKUP(B1187,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1187" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1187">
+        <v>1189</v>
+      </c>
+      <c r="E1187" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1187" s="53"/>
+      <c r="G1187" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1187">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:8" ht="15">
+      <c r="A1188" t="str">
+        <f>+IFERROR(VLOOKUP(B1188,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1188" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1188">
+        <v>1190</v>
+      </c>
+      <c r="E1188" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1188" s="53"/>
+      <c r="G1188" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1188">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:8" ht="15">
+      <c r="A1189" t="str">
+        <f>+IFERROR(VLOOKUP(B1189,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1189" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1189">
+        <v>1191</v>
+      </c>
+      <c r="E1189" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1189" s="53"/>
+      <c r="G1189" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1189">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:8" ht="15">
+      <c r="A1190" t="str">
+        <f>+IFERROR(VLOOKUP(B1190,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1190" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1190">
+        <v>1192</v>
+      </c>
+      <c r="E1190" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1190" s="53"/>
+      <c r="G1190" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1190">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:8" ht="15">
+      <c r="A1191" t="str">
+        <f>+IFERROR(VLOOKUP(B1191,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1191" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1191">
+        <v>1193</v>
+      </c>
+      <c r="E1191" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1191" s="53"/>
+      <c r="G1191" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1191">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:8" ht="15">
+      <c r="A1192" t="str">
+        <f>+IFERROR(VLOOKUP(B1192,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1192" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1192">
+        <v>1194</v>
+      </c>
+      <c r="E1192" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1192" s="53"/>
+      <c r="G1192" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1192">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:8" ht="15">
+      <c r="A1193" t="str">
+        <f>+IFERROR(VLOOKUP(B1193,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1193" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1193">
+        <v>1195</v>
+      </c>
+      <c r="E1193" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1193" s="53"/>
+      <c r="G1193" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1193">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:8" ht="15">
+      <c r="A1194" t="str">
+        <f>+IFERROR(VLOOKUP(B1194,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1194" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1194">
+        <v>1196</v>
+      </c>
+      <c r="E1194" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1194" s="53"/>
+      <c r="G1194" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1194">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:8" ht="15">
+      <c r="A1195" t="str">
+        <f>+IFERROR(VLOOKUP(B1195,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1195" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1195">
+        <v>1197</v>
+      </c>
+      <c r="E1195" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1195" s="53"/>
+      <c r="G1195" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1195">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:8" ht="15">
+      <c r="A1196" t="str">
+        <f>+IFERROR(VLOOKUP(B1196,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1196" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1196">
+        <v>1198</v>
+      </c>
+      <c r="E1196" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1196" s="53"/>
+      <c r="G1196" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1196">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:8" ht="15">
+      <c r="A1197" t="str">
+        <f>+IFERROR(VLOOKUP(B1197,LOCALIZACION[[Departamento]:[Región COVID]],4,0),"No Informado")</f>
+        <v>No Informado</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1197" s="90">
+        <v>44170</v>
+      </c>
+      <c r="D1197">
+        <v>1199</v>
+      </c>
+      <c r="E1197" s="53"/>
+      <c r="F1197" s="53">
+        <v>1</v>
+      </c>
+      <c r="G1197" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1197">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -58816,7 +60986,7 @@
       <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="95">
+      <c r="C5" s="96">
         <v>679</v>
       </c>
     </row>
@@ -58824,13 +60994,13 @@
       <c r="B6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="95"/>
+      <c r="C6" s="96"/>
     </row>
     <row r="7" spans="2:3" ht="15" thickBot="1">
       <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="96"/>
+      <c r="C7" s="97"/>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="83" t="s">
@@ -58848,7 +61018,7 @@
       <c r="B12" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="97">
+      <c r="C12" s="98">
         <v>142</v>
       </c>
     </row>
@@ -58856,19 +61026,19 @@
       <c r="B13" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="97"/>
+      <c r="C13" s="98"/>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="85" t="s">
         <v>803</v>
       </c>
-      <c r="C14" s="97"/>
+      <c r="C14" s="98"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="87" t="s">
         <v>745</v>
       </c>
-      <c r="C15" s="98"/>
+      <c r="C15" s="99"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="83" t="s">
@@ -58882,7 +61052,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="88"/>
-      <c r="C19" s="97">
+      <c r="C19" s="98">
         <v>128</v>
       </c>
     </row>
@@ -58890,25 +61060,25 @@
       <c r="B20" s="85" t="s">
         <v>506</v>
       </c>
-      <c r="C20" s="97"/>
+      <c r="C20" s="98"/>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="97"/>
+      <c r="C21" s="98"/>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" s="85" t="s">
         <v>449</v>
       </c>
-      <c r="C22" s="97"/>
+      <c r="C22" s="98"/>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="87" t="s">
         <v>907</v>
       </c>
-      <c r="C23" s="98"/>
+      <c r="C23" s="99"/>
     </row>
     <row r="25" spans="2:3">
       <c r="B25" s="6" t="s">
@@ -58924,7 +61094,7 @@
       <c r="B27" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="C27" s="95">
+      <c r="C27" s="96">
         <v>87</v>
       </c>
     </row>
@@ -58932,25 +61102,25 @@
       <c r="B28" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="C28" s="95"/>
+      <c r="C28" s="96"/>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C29" s="95"/>
+      <c r="C29" s="96"/>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="C30" s="95"/>
+      <c r="C30" s="96"/>
     </row>
     <row r="31" spans="2:3" ht="15" thickBot="1">
       <c r="B31" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C31" s="96"/>
+      <c r="C31" s="97"/>
     </row>
     <row r="32" spans="2:3" ht="15" thickBot="1"/>
     <row r="33" spans="2:3">
@@ -58967,7 +61137,7 @@
       <c r="B35" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C35" s="95">
+      <c r="C35" s="96">
         <v>78</v>
       </c>
     </row>
@@ -58975,25 +61145,25 @@
       <c r="B36" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="C36" s="95"/>
+      <c r="C36" s="96"/>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="95"/>
+      <c r="C37" s="96"/>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="95"/>
+      <c r="C38" s="96"/>
     </row>
     <row r="39" spans="2:3" ht="15" thickBot="1">
       <c r="B39" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="C39" s="96"/>
+      <c r="C39" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="5">
